--- a/Department_test_case.xlsx
+++ b/Department_test_case.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>Project Name</t>
   </si>
@@ -191,6 +191,63 @@
   </si>
   <si>
     <t>Add Successful</t>
+  </si>
+  <si>
+    <t>Enter a name with numbers or 
+special characters</t>
+  </si>
+  <si>
+    <t>Enter a name with excessive length 
+(e.g., more than 50 characters)</t>
+  </si>
+  <si>
+    <t>Enter a name with minimum 
+length (e.g., one character)</t>
+  </si>
+  <si>
+    <t>Dep_007</t>
+  </si>
+  <si>
+    <t>Dep_008</t>
+  </si>
+  <si>
+    <t>Dep_009</t>
+  </si>
+  <si>
+    <t>Department Name: Man@ag!!ement</t>
+  </si>
+  <si>
+    <t>Department Name: Managemwwww
+wwrwrewrwerweewtrewrewre
+wrewrewrwerewrewrewrwerwerent</t>
+  </si>
+  <si>
+    <t>Department Name:  M</t>
+  </si>
+  <si>
+    <t>Show a error message: "name should contain alphabetic characters only"</t>
+  </si>
+  <si>
+    <t>Show a error message:" the name exceeds the maximum allowed length"</t>
+  </si>
+  <si>
+    <t>Show a error message:"the name should be longer"</t>
+  </si>
+  <si>
+    <t>Crea</t>
+  </si>
+  <si>
+    <t>Enter a name with Integer Number Only</t>
+  </si>
+  <si>
+    <t>Department Name:  35235</t>
+  </si>
+  <si>
+    <t>Show a error message: "name should contain 
+alphabetic characters only"</t>
+  </si>
+  <si>
+    <t>Dep_010</t>
   </si>
 </sst>
 </file>
@@ -237,10 +294,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="7" tint="0.79998168889431442"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -461,13 +518,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -479,23 +549,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
@@ -505,6 +561,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -793,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" customWidth="1"/>
@@ -807,26 +882,26 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="43.21875" customWidth="1"/>
     <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="15" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -835,95 +910,95 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -944,126 +1019,242 @@
       <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="17" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
